--- a/testData/WebForm/TC013_WF_RRN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC013_WF_RRN_OneN_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -304,6 +304,33 @@
   </si>
   <si>
     <t>9840031064</t>
+  </si>
+  <si>
+    <t>9840001395</t>
+  </si>
+  <si>
+    <t>9840094108</t>
+  </si>
+  <si>
+    <t>9840095536</t>
+  </si>
+  <si>
+    <t>9840058613</t>
+  </si>
+  <si>
+    <t>9840013354</t>
+  </si>
+  <si>
+    <t>9840026470</t>
+  </si>
+  <si>
+    <t>9840034579</t>
+  </si>
+  <si>
+    <t>9840086122</t>
+  </si>
+  <si>
+    <t>9840091847</t>
   </si>
 </sst>
 </file>
@@ -923,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1096,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1143,7 +1170,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1190,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1238,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1285,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1332,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1379,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1426,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC013_WF_RRN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC013_WF_RRN_OneN_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -331,6 +331,60 @@
   </si>
   <si>
     <t>9840091847</t>
+  </si>
+  <si>
+    <t>9840066929</t>
+  </si>
+  <si>
+    <t>9840044022</t>
+  </si>
+  <si>
+    <t>9840086366</t>
+  </si>
+  <si>
+    <t>9840047967</t>
+  </si>
+  <si>
+    <t>9840054450</t>
+  </si>
+  <si>
+    <t>9840075016</t>
+  </si>
+  <si>
+    <t>9840033752</t>
+  </si>
+  <si>
+    <t>9840009501</t>
+  </si>
+  <si>
+    <t>9840013866</t>
+  </si>
+  <si>
+    <t>9840022393</t>
+  </si>
+  <si>
+    <t>9840002467</t>
+  </si>
+  <si>
+    <t>9840015646</t>
+  </si>
+  <si>
+    <t>9840021992</t>
+  </si>
+  <si>
+    <t>9840005175</t>
+  </si>
+  <si>
+    <t>9840081931</t>
+  </si>
+  <si>
+    <t>9840047922</t>
+  </si>
+  <si>
+    <t>9840012660</t>
+  </si>
+  <si>
+    <t>9840029163</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1123,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1170,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1217,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1265,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1312,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1359,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1406,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1453,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC013_WF_RRN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC013_WF_RRN_OneN_TwoN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -273,93 +273,6 @@
     <t>Patricia</t>
   </si>
   <si>
-    <t>9840063091</t>
-  </si>
-  <si>
-    <t>9840081477</t>
-  </si>
-  <si>
-    <t>9840067360</t>
-  </si>
-  <si>
-    <t>9840081547</t>
-  </si>
-  <si>
-    <t>9840048511</t>
-  </si>
-  <si>
-    <t>9840032714</t>
-  </si>
-  <si>
-    <t>9840089457</t>
-  </si>
-  <si>
-    <t>9840051039</t>
-  </si>
-  <si>
-    <t>9840042546</t>
-  </si>
-  <si>
-    <t>9840074932</t>
-  </si>
-  <si>
-    <t>9840031064</t>
-  </si>
-  <si>
-    <t>9840001395</t>
-  </si>
-  <si>
-    <t>9840094108</t>
-  </si>
-  <si>
-    <t>9840095536</t>
-  </si>
-  <si>
-    <t>9840058613</t>
-  </si>
-  <si>
-    <t>9840013354</t>
-  </si>
-  <si>
-    <t>9840026470</t>
-  </si>
-  <si>
-    <t>9840034579</t>
-  </si>
-  <si>
-    <t>9840086122</t>
-  </si>
-  <si>
-    <t>9840091847</t>
-  </si>
-  <si>
-    <t>9840066929</t>
-  </si>
-  <si>
-    <t>9840044022</t>
-  </si>
-  <si>
-    <t>9840086366</t>
-  </si>
-  <si>
-    <t>9840047967</t>
-  </si>
-  <si>
-    <t>9840054450</t>
-  </si>
-  <si>
-    <t>9840075016</t>
-  </si>
-  <si>
-    <t>9840033752</t>
-  </si>
-  <si>
-    <t>9840009501</t>
-  </si>
-  <si>
-    <t>9840013866</t>
-  </si>
-  <si>
     <t>9840022393</t>
   </si>
   <si>
@@ -385,6 +298,24 @@
   </si>
   <si>
     <t>9840029163</t>
+  </si>
+  <si>
+    <t>9840023156</t>
+  </si>
+  <si>
+    <t>9840077862</t>
+  </si>
+  <si>
+    <t>9840023622</t>
+  </si>
+  <si>
+    <t>9840014827</t>
+  </si>
+  <si>
+    <t>9840008403</t>
+  </si>
+  <si>
+    <t>9840020493</t>
   </si>
 </sst>
 </file>
@@ -756,59 +687,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -987,7 +918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1160,7 +1091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1204,10 +1135,10 @@
         <v>52</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1251,10 +1182,10 @@
         <v>53</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1295,14 +1226,14 @@
         <v>46</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1346,10 +1277,10 @@
         <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1393,10 +1324,10 @@
         <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1413,7 +1344,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1440,10 +1371,10 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1460,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1490,7 +1421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1534,7 +1465,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
